--- a/web/Statistik/Team/Template Excel Team NSH.xlsx
+++ b/web/Statistik/Team/Template Excel Team NSH.xlsx
@@ -7,20 +7,20 @@
   </bookViews>
   <sheets>
     <sheet name="Achmad Syarif" r:id="rId3" sheetId="1"/>
-    <sheet name="Andi Amier" r:id="rId4" sheetId="2"/>
-    <sheet name="Andre Rorimpandey" r:id="rId5" sheetId="3"/>
-    <sheet name="Benny Wijaya" r:id="rId6" sheetId="4"/>
-    <sheet name="Brachon Lanalt Griffin" r:id="rId7" sheetId="5"/>
-    <sheet name="Dicky Riansyah" r:id="rId8" sheetId="6"/>
-    <sheet name="Giulio Putra Sianturi" r:id="rId9" sheetId="7"/>
-    <sheet name="Imanudin Husnuzan" r:id="rId10" sheetId="8"/>
-    <sheet name="Lutfi Koswara" r:id="rId11" sheetId="9"/>
-    <sheet name="Muhammad Irman" r:id="rId12" sheetId="10"/>
+    <sheet name="Andre Rorimpandey" r:id="rId4" sheetId="2"/>
+    <sheet name="Brachon Lanalt Griffin" r:id="rId5" sheetId="3"/>
+    <sheet name="Dicky Riansyah" r:id="rId6" sheetId="4"/>
+    <sheet name="Farhans Hariz" r:id="rId7" sheetId="5"/>
+    <sheet name="Imanudin Husnuzan" r:id="rId8" sheetId="6"/>
+    <sheet name="Lutfi Koswara" r:id="rId9" sheetId="7"/>
+    <sheet name="Muhamad El Islamy" r:id="rId10" sheetId="8"/>
+    <sheet name="Muhammad Irman" r:id="rId11" sheetId="9"/>
+    <sheet name="Muhammad Surya Jayadiwangsa" r:id="rId12" sheetId="10"/>
     <sheet name="Najabuddin Anwar" r:id="rId13" sheetId="11"/>
     <sheet name="Randy Mantiri" r:id="rId14" sheetId="12"/>
     <sheet name="Raylly Pratama" r:id="rId15" sheetId="13"/>
-    <sheet name="Rizki Andru" r:id="rId16" sheetId="14"/>
-    <sheet name="Ryan Febriyan" r:id="rId17" sheetId="15"/>
+    <sheet name="Ryan Febriyan" r:id="rId16" sheetId="14"/>
+    <sheet name="Wendha Wijaya" r:id="rId17" sheetId="15"/>
     <sheet name="Yoseph Wijaya" r:id="rId18" sheetId="16"/>
   </sheets>
 </workbook>
@@ -119,22 +119,16 @@
     <t>PTS</t>
   </si>
   <si>
-    <t>114</t>
-  </si>
-  <si>
     <t>240</t>
   </si>
   <si>
-    <t>113</t>
-  </si>
-  <si>
     <t>239</t>
   </si>
   <si>
     <t>107</t>
   </si>
   <si>
-    <t>116</t>
+    <t>258</t>
   </si>
   <si>
     <t>103</t>
@@ -143,9 +137,15 @@
     <t>104</t>
   </si>
   <si>
+    <t>257</t>
+  </si>
+  <si>
     <t>242</t>
   </si>
   <si>
+    <t>259</t>
+  </si>
+  <si>
     <t>243</t>
   </si>
   <si>
@@ -155,10 +155,10 @@
     <t>106</t>
   </si>
   <si>
-    <t>115</t>
-  </si>
-  <si>
     <t>109</t>
+  </si>
+  <si>
+    <t>256</t>
   </si>
   <si>
     <t>108</t>
